--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crchemist/development/donpmm/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crchemist/development/donpmm/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06B738E5-09B9-EC47-9C9F-70D0FA9E9834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEE6BCF-6730-3547-8F59-1FA0F7A1224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{EB3C0BBD-B3D7-234E-89CB-A5272E917A39}"/>
+    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{F811705A-BC7D-E149-A537-E4F41477A2BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Донесення" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Донесення!$A$13:$K$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Донесення!$A$1:$K$29</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,14 +43,209 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Додаток 17</t>
+  </si>
+  <si>
+    <t>ДОНЕСЕННЯ № _______</t>
+  </si>
+  <si>
+    <t>про наявність та рух військового майна</t>
+  </si>
+  <si>
+    <t>Реєстра-ційний номер</t>
+  </si>
+  <si>
+    <t>Номер аркуша</t>
+  </si>
+  <si>
+    <t>Номер документа</t>
+  </si>
+  <si>
+    <t>Дата документа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Підстава </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кому </t>
+  </si>
+  <si>
+    <t>Від кого</t>
+  </si>
+  <si>
+    <t>(мета) операції</t>
+  </si>
+  <si>
+    <t>(служба забезпечення)</t>
+  </si>
+  <si>
+    <t>підрозділ (військова частина)</t>
+  </si>
+  <si>
+    <t>Служба забезпечення</t>
+  </si>
+  <si>
+    <t>списання</t>
+  </si>
+  <si>
+    <t>ПММ</t>
+  </si>
+  <si>
+    <t>№ з/п</t>
+  </si>
+  <si>
+    <t>Найменування військового майна</t>
+  </si>
+  <si>
+    <t>Одиниця виміру</t>
+  </si>
+  <si>
+    <t>Надійшло</t>
+  </si>
+  <si>
+    <t>Вибуло</t>
+  </si>
+  <si>
+    <t>зі складу військової частини</t>
+  </si>
+  <si>
+    <t>з інших військових частин (підрозділів)</t>
+  </si>
+  <si>
+    <t>усього</t>
+  </si>
+  <si>
+    <t>витрати</t>
+  </si>
+  <si>
+    <t>передано в інші військові частини (підрозділи)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Шляхові листи  №</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Пояснення:Матеріальні засоби служби ПММ витрачено при експлуатації військової техніки вірно, згідно норм витрати до наказів МО №01 від 1999 року та №513 від 2009 року без допущення перевитрат та потребують списання з книг обліку служби ПММ та ФЕС.</t>
+  </si>
+  <si>
+    <t>(посада, військове звання, підпис, прізвище, ініціали)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -61,15 +264,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1C020800-4F3C-4C40-A0D3-083DB1CCD23F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,6 +458,2807 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="__internal__"/>
+      <sheetName val="Registry"/>
+      <sheetName val="Decrypt"/>
+      <sheetName val="Відомість ДП"/>
+      <sheetName val="Відомість АБ"/>
+      <sheetName val="Реестр шлях.пут."/>
+      <sheetName val="Донесення"/>
+      <sheetName val="SourceSheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="R2" t="str">
+            <v>Залишок початок</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>БМТЗ РМЗ</v>
+          </cell>
+          <cell r="C3">
+            <v>45006</v>
+          </cell>
+          <cell r="D3">
+            <v>45039</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>к-н</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>К. Ісмаїлов</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="R4" t="str">
+            <v>6307E6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>ДП арк євро 5ВО</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Energy ДПл євро 5ВО</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>ДП МТД</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>А-80</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>А-90</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>А-92</v>
+          </cell>
+          <cell r="J5">
+            <v>345</v>
+          </cell>
+          <cell r="R5">
+            <v>1</v>
+          </cell>
+          <cell r="S5">
+            <v>111</v>
+          </cell>
+          <cell r="T5">
+            <v>4</v>
+          </cell>
+          <cell r="U5">
+            <v>3</v>
+          </cell>
+          <cell r="X5" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.85</v>
+          </cell>
+          <cell r="C6">
+            <v>0.84</v>
+          </cell>
+          <cell r="D6">
+            <v>0.85</v>
+          </cell>
+          <cell r="E6">
+            <v>0.84</v>
+          </cell>
+          <cell r="F6">
+            <v>0.85</v>
+          </cell>
+          <cell r="G6">
+            <v>0.75</v>
+          </cell>
+          <cell r="H6">
+            <v>0.75</v>
+          </cell>
+          <cell r="I6">
+            <v>0.75</v>
+          </cell>
+          <cell r="J6">
+            <v>99</v>
+          </cell>
+          <cell r="R6">
+            <v>2</v>
+          </cell>
+          <cell r="S6">
+            <v>113</v>
+          </cell>
+          <cell r="T6">
+            <v>5</v>
+          </cell>
+          <cell r="U6">
+            <v>6</v>
+          </cell>
+          <cell r="X6" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+          <cell r="Y6" t="str">
+            <v>А-80</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="D7">
+            <v>3</v>
+          </cell>
+          <cell r="F7">
+            <v>4</v>
+          </cell>
+          <cell r="G7">
+            <v>8</v>
+          </cell>
+          <cell r="H7">
+            <v>9</v>
+          </cell>
+          <cell r="I7">
+            <v>10</v>
+          </cell>
+          <cell r="J7">
+            <v>888</v>
+          </cell>
+          <cell r="R7">
+            <v>3</v>
+          </cell>
+          <cell r="S7">
+            <v>114</v>
+          </cell>
+          <cell r="T7">
+            <v>5</v>
+          </cell>
+          <cell r="U7">
+            <v>8</v>
+          </cell>
+          <cell r="X7" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>21</v>
+          </cell>
+          <cell r="C8">
+            <v>22</v>
+          </cell>
+          <cell r="D8">
+            <v>23</v>
+          </cell>
+          <cell r="E8">
+            <v>24</v>
+          </cell>
+          <cell r="F8">
+            <v>25</v>
+          </cell>
+          <cell r="G8">
+            <v>26</v>
+          </cell>
+          <cell r="H8">
+            <v>27</v>
+          </cell>
+          <cell r="I8">
+            <v>28</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>fdskfj</v>
+          </cell>
+          <cell r="R8">
+            <v>8123</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>345</v>
+          </cell>
+          <cell r="R9">
+            <v>1</v>
+          </cell>
+          <cell r="S9">
+            <v>111</v>
+          </cell>
+          <cell r="T9">
+            <v>4</v>
+          </cell>
+          <cell r="U9">
+            <v>3</v>
+          </cell>
+          <cell r="X9" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>99</v>
+          </cell>
+          <cell r="R10">
+            <v>2</v>
+          </cell>
+          <cell r="S10">
+            <v>113</v>
+          </cell>
+          <cell r="T10">
+            <v>5</v>
+          </cell>
+          <cell r="U10">
+            <v>6</v>
+          </cell>
+          <cell r="X10" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>888</v>
+          </cell>
+          <cell r="R11">
+            <v>3</v>
+          </cell>
+          <cell r="S11">
+            <v>114</v>
+          </cell>
+          <cell r="T11">
+            <v>5</v>
+          </cell>
+          <cell r="U11">
+            <v>8</v>
+          </cell>
+          <cell r="X11" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12" t="str">
+            <v>yen one</v>
+          </cell>
+          <cell r="R12">
+            <v>3232</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>ДП арк євро 5ВО</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Energy ДПл євро 5ВО</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>ДП МТД</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>А-80</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>А-90</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>А-92</v>
+          </cell>
+          <cell r="J13">
+            <v>347</v>
+          </cell>
+          <cell r="R13">
+            <v>1</v>
+          </cell>
+          <cell r="S13">
+            <v>111</v>
+          </cell>
+          <cell r="T13">
+            <v>4</v>
+          </cell>
+          <cell r="U13">
+            <v>3</v>
+          </cell>
+          <cell r="X13" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.85</v>
+          </cell>
+          <cell r="C14">
+            <v>0.84</v>
+          </cell>
+          <cell r="D14">
+            <v>0.85</v>
+          </cell>
+          <cell r="E14">
+            <v>0.84</v>
+          </cell>
+          <cell r="F14">
+            <v>0.85</v>
+          </cell>
+          <cell r="G14">
+            <v>0.75</v>
+          </cell>
+          <cell r="H14">
+            <v>0.75</v>
+          </cell>
+          <cell r="I14">
+            <v>0.77</v>
+          </cell>
+          <cell r="J14">
+            <v>119</v>
+          </cell>
+          <cell r="R14">
+            <v>2</v>
+          </cell>
+          <cell r="S14">
+            <v>113</v>
+          </cell>
+          <cell r="T14">
+            <v>5</v>
+          </cell>
+          <cell r="U14">
+            <v>6</v>
+          </cell>
+          <cell r="X14" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>5</v>
+          </cell>
+          <cell r="D15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>7</v>
+          </cell>
+          <cell r="G15">
+            <v>99</v>
+          </cell>
+          <cell r="H15">
+            <v>98</v>
+          </cell>
+          <cell r="I15">
+            <v>97</v>
+          </cell>
+          <cell r="J15">
+            <v>888</v>
+          </cell>
+          <cell r="R15">
+            <v>3</v>
+          </cell>
+          <cell r="S15">
+            <v>114</v>
+          </cell>
+          <cell r="T15">
+            <v>5</v>
+          </cell>
+          <cell r="U15">
+            <v>8</v>
+          </cell>
+          <cell r="X15" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>31</v>
+          </cell>
+          <cell r="C16">
+            <v>32</v>
+          </cell>
+          <cell r="D16">
+            <v>33</v>
+          </cell>
+          <cell r="E16">
+            <v>34</v>
+          </cell>
+          <cell r="F16">
+            <v>35</v>
+          </cell>
+          <cell r="G16">
+            <v>36</v>
+          </cell>
+          <cell r="H16">
+            <v>37</v>
+          </cell>
+          <cell r="I16">
+            <v>38</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>jeep</v>
+          </cell>
+          <cell r="R16">
+            <v>88888</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17">
+            <v>345</v>
+          </cell>
+          <cell r="R17">
+            <v>1</v>
+          </cell>
+          <cell r="S17">
+            <v>111</v>
+          </cell>
+          <cell r="T17">
+            <v>4</v>
+          </cell>
+          <cell r="U17">
+            <v>3</v>
+          </cell>
+          <cell r="X17" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>99</v>
+          </cell>
+          <cell r="R18">
+            <v>2</v>
+          </cell>
+          <cell r="S18">
+            <v>113</v>
+          </cell>
+          <cell r="T18">
+            <v>5</v>
+          </cell>
+          <cell r="U18">
+            <v>6</v>
+          </cell>
+          <cell r="X18" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19">
+            <v>888</v>
+          </cell>
+          <cell r="R19">
+            <v>3</v>
+          </cell>
+          <cell r="S19">
+            <v>114</v>
+          </cell>
+          <cell r="T19">
+            <v>5</v>
+          </cell>
+          <cell r="U19">
+            <v>8</v>
+          </cell>
+          <cell r="X19" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20" t="str">
+            <v>five</v>
+          </cell>
+          <cell r="R20">
+            <v>6666</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21">
+            <v>345</v>
+          </cell>
+          <cell r="R21">
+            <v>1</v>
+          </cell>
+          <cell r="S21">
+            <v>111</v>
+          </cell>
+          <cell r="T21">
+            <v>4</v>
+          </cell>
+          <cell r="U21">
+            <v>3</v>
+          </cell>
+          <cell r="X21" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22">
+            <v>99</v>
+          </cell>
+          <cell r="R22">
+            <v>2</v>
+          </cell>
+          <cell r="S22">
+            <v>113</v>
+          </cell>
+          <cell r="T22">
+            <v>5</v>
+          </cell>
+          <cell r="U22">
+            <v>6</v>
+          </cell>
+          <cell r="X22" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23">
+            <v>8</v>
+          </cell>
+          <cell r="R23">
+            <v>3</v>
+          </cell>
+          <cell r="S23">
+            <v>114</v>
+          </cell>
+          <cell r="T23">
+            <v>5</v>
+          </cell>
+          <cell r="U23">
+            <v>8</v>
+          </cell>
+          <cell r="X23" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24" t="str">
+            <v>fjkdfj</v>
+          </cell>
+          <cell r="R24" t="str">
+            <v>fj99</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>345</v>
+          </cell>
+          <cell r="R25">
+            <v>1</v>
+          </cell>
+          <cell r="S25">
+            <v>111</v>
+          </cell>
+          <cell r="T25">
+            <v>4</v>
+          </cell>
+          <cell r="U25">
+            <v>3</v>
+          </cell>
+          <cell r="X25" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26">
+            <v>99</v>
+          </cell>
+          <cell r="R26">
+            <v>2</v>
+          </cell>
+          <cell r="S26">
+            <v>113</v>
+          </cell>
+          <cell r="T26">
+            <v>5</v>
+          </cell>
+          <cell r="U26">
+            <v>6</v>
+          </cell>
+          <cell r="X26" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27">
+            <v>888</v>
+          </cell>
+          <cell r="R27">
+            <v>3</v>
+          </cell>
+          <cell r="S27">
+            <v>114</v>
+          </cell>
+          <cell r="T27">
+            <v>5</v>
+          </cell>
+          <cell r="U27">
+            <v>8</v>
+          </cell>
+          <cell r="X27" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28" t="str">
+            <v>seven</v>
+          </cell>
+          <cell r="R28">
+            <v>777</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29">
+            <v>345</v>
+          </cell>
+          <cell r="R29">
+            <v>1</v>
+          </cell>
+          <cell r="S29">
+            <v>111</v>
+          </cell>
+          <cell r="T29">
+            <v>4</v>
+          </cell>
+          <cell r="U29">
+            <v>3</v>
+          </cell>
+          <cell r="X29" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30">
+            <v>99</v>
+          </cell>
+          <cell r="R30">
+            <v>2</v>
+          </cell>
+          <cell r="S30">
+            <v>113</v>
+          </cell>
+          <cell r="T30">
+            <v>5</v>
+          </cell>
+          <cell r="U30">
+            <v>6</v>
+          </cell>
+          <cell r="X30" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31">
+            <v>888</v>
+          </cell>
+          <cell r="R31">
+            <v>3</v>
+          </cell>
+          <cell r="S31">
+            <v>114</v>
+          </cell>
+          <cell r="T31">
+            <v>5</v>
+          </cell>
+          <cell r="U31">
+            <v>8</v>
+          </cell>
+          <cell r="X31" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32" t="str">
+            <v>eight</v>
+          </cell>
+          <cell r="R32" t="str">
+            <v>8888A2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33">
+            <v>345</v>
+          </cell>
+          <cell r="R33">
+            <v>1</v>
+          </cell>
+          <cell r="S33">
+            <v>111</v>
+          </cell>
+          <cell r="T33">
+            <v>4</v>
+          </cell>
+          <cell r="U33">
+            <v>3</v>
+          </cell>
+          <cell r="X33" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34">
+            <v>99</v>
+          </cell>
+          <cell r="R34">
+            <v>2</v>
+          </cell>
+          <cell r="S34">
+            <v>113</v>
+          </cell>
+          <cell r="T34">
+            <v>5</v>
+          </cell>
+          <cell r="U34">
+            <v>6</v>
+          </cell>
+          <cell r="X34" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35">
+            <v>888</v>
+          </cell>
+          <cell r="R35">
+            <v>3</v>
+          </cell>
+          <cell r="S35">
+            <v>114</v>
+          </cell>
+          <cell r="T35">
+            <v>5</v>
+          </cell>
+          <cell r="U35">
+            <v>8</v>
+          </cell>
+          <cell r="X35" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36" t="str">
+            <v>nine</v>
+          </cell>
+          <cell r="R36" t="str">
+            <v>999nine</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37">
+            <v>345</v>
+          </cell>
+          <cell r="R37">
+            <v>1</v>
+          </cell>
+          <cell r="S37">
+            <v>111</v>
+          </cell>
+          <cell r="T37">
+            <v>4</v>
+          </cell>
+          <cell r="U37">
+            <v>3</v>
+          </cell>
+          <cell r="X37" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38">
+            <v>99</v>
+          </cell>
+          <cell r="R38">
+            <v>2</v>
+          </cell>
+          <cell r="S38">
+            <v>113</v>
+          </cell>
+          <cell r="T38">
+            <v>5</v>
+          </cell>
+          <cell r="U38">
+            <v>6</v>
+          </cell>
+          <cell r="X38" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39">
+            <v>888</v>
+          </cell>
+          <cell r="R39">
+            <v>3</v>
+          </cell>
+          <cell r="S39">
+            <v>114</v>
+          </cell>
+          <cell r="T39">
+            <v>5</v>
+          </cell>
+          <cell r="U39">
+            <v>8</v>
+          </cell>
+          <cell r="X39" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40" t="str">
+            <v>ten10</v>
+          </cell>
+          <cell r="R40">
+            <v>1010</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41">
+            <v>345</v>
+          </cell>
+          <cell r="R41">
+            <v>1</v>
+          </cell>
+          <cell r="S41">
+            <v>111</v>
+          </cell>
+          <cell r="T41">
+            <v>4</v>
+          </cell>
+          <cell r="U41">
+            <v>3</v>
+          </cell>
+          <cell r="X41" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="J42">
+            <v>99</v>
+          </cell>
+          <cell r="R42">
+            <v>2</v>
+          </cell>
+          <cell r="S42">
+            <v>113</v>
+          </cell>
+          <cell r="T42">
+            <v>5</v>
+          </cell>
+          <cell r="U42">
+            <v>6</v>
+          </cell>
+          <cell r="X42" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="J43">
+            <v>888</v>
+          </cell>
+          <cell r="R43">
+            <v>3</v>
+          </cell>
+          <cell r="S43">
+            <v>114</v>
+          </cell>
+          <cell r="T43">
+            <v>5</v>
+          </cell>
+          <cell r="U43">
+            <v>8</v>
+          </cell>
+          <cell r="X43" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44" t="str">
+            <v>eleven11</v>
+          </cell>
+          <cell r="R44" t="str">
+            <v>111!</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45">
+            <v>345</v>
+          </cell>
+          <cell r="R45">
+            <v>1</v>
+          </cell>
+          <cell r="S45">
+            <v>111</v>
+          </cell>
+          <cell r="T45">
+            <v>4</v>
+          </cell>
+          <cell r="U45">
+            <v>3</v>
+          </cell>
+          <cell r="X45" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46">
+            <v>99</v>
+          </cell>
+          <cell r="R46">
+            <v>2</v>
+          </cell>
+          <cell r="S46">
+            <v>113</v>
+          </cell>
+          <cell r="T46">
+            <v>5</v>
+          </cell>
+          <cell r="U46">
+            <v>6</v>
+          </cell>
+          <cell r="X46" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47">
+            <v>888</v>
+          </cell>
+          <cell r="R47">
+            <v>3</v>
+          </cell>
+          <cell r="S47">
+            <v>114</v>
+          </cell>
+          <cell r="T47">
+            <v>5</v>
+          </cell>
+          <cell r="U47">
+            <v>8</v>
+          </cell>
+          <cell r="X47" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="J48" t="str">
+            <v>tw</v>
+          </cell>
+          <cell r="R48">
+            <v>1212</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49">
+            <v>345</v>
+          </cell>
+          <cell r="R49">
+            <v>1</v>
+          </cell>
+          <cell r="S49">
+            <v>111</v>
+          </cell>
+          <cell r="T49">
+            <v>4</v>
+          </cell>
+          <cell r="U49">
+            <v>3</v>
+          </cell>
+          <cell r="X49" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="J50">
+            <v>99</v>
+          </cell>
+          <cell r="R50">
+            <v>2</v>
+          </cell>
+          <cell r="S50">
+            <v>113</v>
+          </cell>
+          <cell r="T50">
+            <v>5</v>
+          </cell>
+          <cell r="U50">
+            <v>6</v>
+          </cell>
+          <cell r="X50" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51">
+            <v>888</v>
+          </cell>
+          <cell r="R51">
+            <v>3</v>
+          </cell>
+          <cell r="S51">
+            <v>114</v>
+          </cell>
+          <cell r="T51">
+            <v>5</v>
+          </cell>
+          <cell r="U51">
+            <v>8</v>
+          </cell>
+          <cell r="X51" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52" t="str">
+            <v>thirteen</v>
+          </cell>
+          <cell r="R52">
+            <v>1313</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53">
+            <v>345</v>
+          </cell>
+          <cell r="R53">
+            <v>1</v>
+          </cell>
+          <cell r="S53">
+            <v>111</v>
+          </cell>
+          <cell r="T53">
+            <v>4</v>
+          </cell>
+          <cell r="U53">
+            <v>3</v>
+          </cell>
+          <cell r="X53" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54">
+            <v>99</v>
+          </cell>
+          <cell r="R54">
+            <v>2</v>
+          </cell>
+          <cell r="S54">
+            <v>113</v>
+          </cell>
+          <cell r="T54">
+            <v>5</v>
+          </cell>
+          <cell r="U54">
+            <v>6</v>
+          </cell>
+          <cell r="X54" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55">
+            <v>888</v>
+          </cell>
+          <cell r="R55">
+            <v>3</v>
+          </cell>
+          <cell r="S55">
+            <v>114</v>
+          </cell>
+          <cell r="T55">
+            <v>5</v>
+          </cell>
+          <cell r="U55">
+            <v>8</v>
+          </cell>
+          <cell r="X55" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56" t="str">
+            <v>4teen</v>
+          </cell>
+          <cell r="R56">
+            <v>1414</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57">
+            <v>345</v>
+          </cell>
+          <cell r="R57">
+            <v>1</v>
+          </cell>
+          <cell r="S57">
+            <v>111</v>
+          </cell>
+          <cell r="T57">
+            <v>4</v>
+          </cell>
+          <cell r="U57">
+            <v>3</v>
+          </cell>
+          <cell r="X57" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58">
+            <v>99</v>
+          </cell>
+          <cell r="R58">
+            <v>2</v>
+          </cell>
+          <cell r="S58">
+            <v>113</v>
+          </cell>
+          <cell r="T58">
+            <v>5</v>
+          </cell>
+          <cell r="U58">
+            <v>6</v>
+          </cell>
+          <cell r="X58" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59">
+            <v>888</v>
+          </cell>
+          <cell r="R59">
+            <v>3</v>
+          </cell>
+          <cell r="S59">
+            <v>114</v>
+          </cell>
+          <cell r="T59">
+            <v>5</v>
+          </cell>
+          <cell r="U59">
+            <v>8</v>
+          </cell>
+          <cell r="X59" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60" t="str">
+            <v>5teen</v>
+          </cell>
+          <cell r="R60">
+            <v>1515</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61">
+            <v>345</v>
+          </cell>
+          <cell r="R61">
+            <v>1</v>
+          </cell>
+          <cell r="S61">
+            <v>111</v>
+          </cell>
+          <cell r="T61">
+            <v>4</v>
+          </cell>
+          <cell r="U61">
+            <v>3</v>
+          </cell>
+          <cell r="X61" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62">
+            <v>99</v>
+          </cell>
+          <cell r="R62">
+            <v>2</v>
+          </cell>
+          <cell r="S62">
+            <v>113</v>
+          </cell>
+          <cell r="T62">
+            <v>5</v>
+          </cell>
+          <cell r="U62">
+            <v>6</v>
+          </cell>
+          <cell r="X62" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="J63">
+            <v>888</v>
+          </cell>
+          <cell r="R63">
+            <v>3</v>
+          </cell>
+          <cell r="S63">
+            <v>114</v>
+          </cell>
+          <cell r="T63">
+            <v>5</v>
+          </cell>
+          <cell r="U63">
+            <v>8</v>
+          </cell>
+          <cell r="X63" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="J64" t="str">
+            <v>sixteennnnn</v>
+          </cell>
+          <cell r="R64">
+            <v>1616</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="J65">
+            <v>345</v>
+          </cell>
+          <cell r="R65">
+            <v>1</v>
+          </cell>
+          <cell r="S65">
+            <v>111</v>
+          </cell>
+          <cell r="T65">
+            <v>4</v>
+          </cell>
+          <cell r="U65">
+            <v>3</v>
+          </cell>
+          <cell r="X65" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="J66">
+            <v>99</v>
+          </cell>
+          <cell r="R66">
+            <v>2</v>
+          </cell>
+          <cell r="S66">
+            <v>113</v>
+          </cell>
+          <cell r="T66">
+            <v>5</v>
+          </cell>
+          <cell r="U66">
+            <v>6</v>
+          </cell>
+          <cell r="X66" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="J67">
+            <v>888</v>
+          </cell>
+          <cell r="R67">
+            <v>3</v>
+          </cell>
+          <cell r="S67">
+            <v>114</v>
+          </cell>
+          <cell r="T67">
+            <v>5</v>
+          </cell>
+          <cell r="U67">
+            <v>8</v>
+          </cell>
+          <cell r="X67" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="J68" t="str">
+            <v>seventttt</v>
+          </cell>
+          <cell r="R68">
+            <v>1718</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="J69">
+            <v>345</v>
+          </cell>
+          <cell r="R69">
+            <v>1</v>
+          </cell>
+          <cell r="S69">
+            <v>111</v>
+          </cell>
+          <cell r="T69">
+            <v>4</v>
+          </cell>
+          <cell r="U69">
+            <v>3</v>
+          </cell>
+          <cell r="X69" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="J70">
+            <v>99</v>
+          </cell>
+          <cell r="R70">
+            <v>2</v>
+          </cell>
+          <cell r="S70">
+            <v>113</v>
+          </cell>
+          <cell r="T70">
+            <v>5</v>
+          </cell>
+          <cell r="U70">
+            <v>6</v>
+          </cell>
+          <cell r="X70" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="J71">
+            <v>888</v>
+          </cell>
+          <cell r="R71">
+            <v>3</v>
+          </cell>
+          <cell r="S71">
+            <v>114</v>
+          </cell>
+          <cell r="T71">
+            <v>5</v>
+          </cell>
+          <cell r="U71">
+            <v>8</v>
+          </cell>
+          <cell r="X71" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="J72" t="str">
+            <v>8teen991</v>
+          </cell>
+          <cell r="R72">
+            <v>1818</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="J73">
+            <v>345</v>
+          </cell>
+          <cell r="R73">
+            <v>1</v>
+          </cell>
+          <cell r="S73">
+            <v>111</v>
+          </cell>
+          <cell r="T73">
+            <v>4</v>
+          </cell>
+          <cell r="U73">
+            <v>3</v>
+          </cell>
+          <cell r="X73" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="J74">
+            <v>88</v>
+          </cell>
+          <cell r="R74">
+            <v>2</v>
+          </cell>
+          <cell r="S74">
+            <v>113</v>
+          </cell>
+          <cell r="T74">
+            <v>5</v>
+          </cell>
+          <cell r="U74">
+            <v>6</v>
+          </cell>
+          <cell r="X74" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="J75">
+            <v>888</v>
+          </cell>
+          <cell r="R75">
+            <v>3</v>
+          </cell>
+          <cell r="S75">
+            <v>114</v>
+          </cell>
+          <cell r="T75">
+            <v>5</v>
+          </cell>
+          <cell r="U75">
+            <v>8</v>
+          </cell>
+          <cell r="X75" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="J76" t="str">
+            <v>dva</v>
+          </cell>
+          <cell r="R76">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="J77">
+            <v>345</v>
+          </cell>
+          <cell r="R77">
+            <v>1</v>
+          </cell>
+          <cell r="S77">
+            <v>111</v>
+          </cell>
+          <cell r="T77">
+            <v>4</v>
+          </cell>
+          <cell r="U77">
+            <v>3</v>
+          </cell>
+          <cell r="X77" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="J78">
+            <v>99</v>
+          </cell>
+          <cell r="R78">
+            <v>2</v>
+          </cell>
+          <cell r="S78">
+            <v>113</v>
+          </cell>
+          <cell r="T78">
+            <v>5</v>
+          </cell>
+          <cell r="U78">
+            <v>6</v>
+          </cell>
+          <cell r="X78" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="J79">
+            <v>888</v>
+          </cell>
+          <cell r="R79">
+            <v>3</v>
+          </cell>
+          <cell r="S79">
+            <v>114</v>
+          </cell>
+          <cell r="T79">
+            <v>5</v>
+          </cell>
+          <cell r="U79">
+            <v>8</v>
+          </cell>
+          <cell r="X79" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="J80" t="str">
+            <v>twenty one11</v>
+          </cell>
+          <cell r="R80">
+            <v>2121</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="J81">
+            <v>345</v>
+          </cell>
+          <cell r="R81">
+            <v>1</v>
+          </cell>
+          <cell r="S81">
+            <v>111</v>
+          </cell>
+          <cell r="T81">
+            <v>4</v>
+          </cell>
+          <cell r="U81">
+            <v>3</v>
+          </cell>
+          <cell r="X81" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="J82">
+            <v>99</v>
+          </cell>
+          <cell r="R82">
+            <v>2</v>
+          </cell>
+          <cell r="S82">
+            <v>113</v>
+          </cell>
+          <cell r="T82">
+            <v>5</v>
+          </cell>
+          <cell r="U82">
+            <v>6</v>
+          </cell>
+          <cell r="X82" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="J83">
+            <v>888</v>
+          </cell>
+          <cell r="R83">
+            <v>3</v>
+          </cell>
+          <cell r="S83">
+            <v>114</v>
+          </cell>
+          <cell r="T83">
+            <v>5</v>
+          </cell>
+          <cell r="U83">
+            <v>8</v>
+          </cell>
+          <cell r="X83" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="J84" t="str">
+            <v>tt22</v>
+          </cell>
+          <cell r="R84">
+            <v>2222</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="J85">
+            <v>345</v>
+          </cell>
+          <cell r="R85">
+            <v>1</v>
+          </cell>
+          <cell r="S85">
+            <v>111</v>
+          </cell>
+          <cell r="T85">
+            <v>4</v>
+          </cell>
+          <cell r="U85">
+            <v>3</v>
+          </cell>
+          <cell r="X85" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="J86">
+            <v>99</v>
+          </cell>
+          <cell r="R86">
+            <v>2</v>
+          </cell>
+          <cell r="S86">
+            <v>113</v>
+          </cell>
+          <cell r="T86">
+            <v>5</v>
+          </cell>
+          <cell r="U86">
+            <v>6</v>
+          </cell>
+          <cell r="X86" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="J87">
+            <v>888</v>
+          </cell>
+          <cell r="R87">
+            <v>3</v>
+          </cell>
+          <cell r="S87">
+            <v>114</v>
+          </cell>
+          <cell r="T87">
+            <v>5</v>
+          </cell>
+          <cell r="U87">
+            <v>8</v>
+          </cell>
+          <cell r="X87" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="J89">
+            <v>345</v>
+          </cell>
+          <cell r="R89">
+            <v>1</v>
+          </cell>
+          <cell r="S89">
+            <v>111</v>
+          </cell>
+          <cell r="T89">
+            <v>4</v>
+          </cell>
+          <cell r="U89">
+            <v>3</v>
+          </cell>
+          <cell r="X89" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="J90">
+            <v>99</v>
+          </cell>
+          <cell r="R90">
+            <v>2</v>
+          </cell>
+          <cell r="S90">
+            <v>113</v>
+          </cell>
+          <cell r="T90">
+            <v>5</v>
+          </cell>
+          <cell r="U90">
+            <v>6</v>
+          </cell>
+          <cell r="X90" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="J91">
+            <v>888</v>
+          </cell>
+          <cell r="R91">
+            <v>3</v>
+          </cell>
+          <cell r="S91">
+            <v>114</v>
+          </cell>
+          <cell r="T91">
+            <v>5</v>
+          </cell>
+          <cell r="U91">
+            <v>8</v>
+          </cell>
+          <cell r="X91" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="J93">
+            <v>345</v>
+          </cell>
+          <cell r="R93">
+            <v>1</v>
+          </cell>
+          <cell r="S93">
+            <v>111</v>
+          </cell>
+          <cell r="T93">
+            <v>4</v>
+          </cell>
+          <cell r="U93">
+            <v>3</v>
+          </cell>
+          <cell r="X93" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="J94">
+            <v>99</v>
+          </cell>
+          <cell r="R94">
+            <v>2</v>
+          </cell>
+          <cell r="S94">
+            <v>113</v>
+          </cell>
+          <cell r="T94">
+            <v>5</v>
+          </cell>
+          <cell r="U94">
+            <v>6</v>
+          </cell>
+          <cell r="X94" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="J95">
+            <v>888</v>
+          </cell>
+          <cell r="R95">
+            <v>3</v>
+          </cell>
+          <cell r="S95">
+            <v>114</v>
+          </cell>
+          <cell r="T95">
+            <v>5</v>
+          </cell>
+          <cell r="U95">
+            <v>8</v>
+          </cell>
+          <cell r="X95" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="J97">
+            <v>345</v>
+          </cell>
+          <cell r="R97">
+            <v>1</v>
+          </cell>
+          <cell r="S97">
+            <v>111</v>
+          </cell>
+          <cell r="T97">
+            <v>4</v>
+          </cell>
+          <cell r="U97">
+            <v>3</v>
+          </cell>
+          <cell r="X97" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="J98">
+            <v>99</v>
+          </cell>
+          <cell r="R98">
+            <v>2</v>
+          </cell>
+          <cell r="S98">
+            <v>113</v>
+          </cell>
+          <cell r="T98">
+            <v>5</v>
+          </cell>
+          <cell r="U98">
+            <v>6</v>
+          </cell>
+          <cell r="X98" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="J99">
+            <v>888</v>
+          </cell>
+          <cell r="R99">
+            <v>3</v>
+          </cell>
+          <cell r="S99">
+            <v>114</v>
+          </cell>
+          <cell r="T99">
+            <v>5</v>
+          </cell>
+          <cell r="U99">
+            <v>8</v>
+          </cell>
+          <cell r="X99" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="J101">
+            <v>345</v>
+          </cell>
+          <cell r="R101">
+            <v>1</v>
+          </cell>
+          <cell r="S101">
+            <v>111</v>
+          </cell>
+          <cell r="T101">
+            <v>4</v>
+          </cell>
+          <cell r="U101">
+            <v>3</v>
+          </cell>
+          <cell r="X101" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="J102">
+            <v>99</v>
+          </cell>
+          <cell r="R102">
+            <v>2</v>
+          </cell>
+          <cell r="S102">
+            <v>113</v>
+          </cell>
+          <cell r="T102">
+            <v>5</v>
+          </cell>
+          <cell r="U102">
+            <v>6</v>
+          </cell>
+          <cell r="X102" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="J103">
+            <v>888</v>
+          </cell>
+          <cell r="R103">
+            <v>3</v>
+          </cell>
+          <cell r="S103">
+            <v>114</v>
+          </cell>
+          <cell r="T103">
+            <v>5</v>
+          </cell>
+          <cell r="U103">
+            <v>8</v>
+          </cell>
+          <cell r="X103" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="J105">
+            <v>345</v>
+          </cell>
+          <cell r="R105">
+            <v>1</v>
+          </cell>
+          <cell r="S105">
+            <v>111</v>
+          </cell>
+          <cell r="T105">
+            <v>4</v>
+          </cell>
+          <cell r="U105">
+            <v>3</v>
+          </cell>
+          <cell r="X105" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="J106">
+            <v>99</v>
+          </cell>
+          <cell r="R106">
+            <v>2</v>
+          </cell>
+          <cell r="S106">
+            <v>113</v>
+          </cell>
+          <cell r="T106">
+            <v>5</v>
+          </cell>
+          <cell r="U106">
+            <v>6</v>
+          </cell>
+          <cell r="X106" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="J107">
+            <v>888</v>
+          </cell>
+          <cell r="R107">
+            <v>3</v>
+          </cell>
+          <cell r="S107">
+            <v>114</v>
+          </cell>
+          <cell r="T107">
+            <v>5</v>
+          </cell>
+          <cell r="U107">
+            <v>8</v>
+          </cell>
+          <cell r="X107" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="J109">
+            <v>345</v>
+          </cell>
+          <cell r="R109">
+            <v>1</v>
+          </cell>
+          <cell r="S109">
+            <v>111</v>
+          </cell>
+          <cell r="T109">
+            <v>4</v>
+          </cell>
+          <cell r="U109">
+            <v>3</v>
+          </cell>
+          <cell r="X109" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="J110">
+            <v>99</v>
+          </cell>
+          <cell r="R110">
+            <v>2</v>
+          </cell>
+          <cell r="S110">
+            <v>113</v>
+          </cell>
+          <cell r="T110">
+            <v>5</v>
+          </cell>
+          <cell r="U110">
+            <v>6</v>
+          </cell>
+          <cell r="X110" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="J111">
+            <v>888</v>
+          </cell>
+          <cell r="R111">
+            <v>3</v>
+          </cell>
+          <cell r="S111">
+            <v>114</v>
+          </cell>
+          <cell r="T111">
+            <v>5</v>
+          </cell>
+          <cell r="U111">
+            <v>8</v>
+          </cell>
+          <cell r="X111" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="J113">
+            <v>345</v>
+          </cell>
+          <cell r="R113">
+            <v>1</v>
+          </cell>
+          <cell r="S113">
+            <v>111</v>
+          </cell>
+          <cell r="T113">
+            <v>4</v>
+          </cell>
+          <cell r="U113">
+            <v>3</v>
+          </cell>
+          <cell r="X113" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="J114">
+            <v>99</v>
+          </cell>
+          <cell r="R114">
+            <v>2</v>
+          </cell>
+          <cell r="S114">
+            <v>113</v>
+          </cell>
+          <cell r="T114">
+            <v>5</v>
+          </cell>
+          <cell r="U114">
+            <v>6</v>
+          </cell>
+          <cell r="X114" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="J115">
+            <v>888</v>
+          </cell>
+          <cell r="R115">
+            <v>3</v>
+          </cell>
+          <cell r="S115">
+            <v>114</v>
+          </cell>
+          <cell r="T115">
+            <v>5</v>
+          </cell>
+          <cell r="U115">
+            <v>8</v>
+          </cell>
+          <cell r="X115" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="J117">
+            <v>345</v>
+          </cell>
+          <cell r="R117">
+            <v>1</v>
+          </cell>
+          <cell r="S117">
+            <v>111</v>
+          </cell>
+          <cell r="T117">
+            <v>4</v>
+          </cell>
+          <cell r="U117">
+            <v>3</v>
+          </cell>
+          <cell r="X117" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="J118">
+            <v>99</v>
+          </cell>
+          <cell r="R118">
+            <v>2</v>
+          </cell>
+          <cell r="S118">
+            <v>113</v>
+          </cell>
+          <cell r="T118">
+            <v>5</v>
+          </cell>
+          <cell r="U118">
+            <v>6</v>
+          </cell>
+          <cell r="X118" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="J119">
+            <v>888</v>
+          </cell>
+          <cell r="R119">
+            <v>3</v>
+          </cell>
+          <cell r="S119">
+            <v>114</v>
+          </cell>
+          <cell r="T119">
+            <v>5</v>
+          </cell>
+          <cell r="U119">
+            <v>8</v>
+          </cell>
+          <cell r="X119" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="J121">
+            <v>345</v>
+          </cell>
+          <cell r="R121">
+            <v>1</v>
+          </cell>
+          <cell r="S121">
+            <v>111</v>
+          </cell>
+          <cell r="T121">
+            <v>4</v>
+          </cell>
+          <cell r="U121">
+            <v>3</v>
+          </cell>
+          <cell r="X121" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="J122">
+            <v>99</v>
+          </cell>
+          <cell r="R122">
+            <v>2</v>
+          </cell>
+          <cell r="S122">
+            <v>113</v>
+          </cell>
+          <cell r="T122">
+            <v>5</v>
+          </cell>
+          <cell r="U122">
+            <v>6</v>
+          </cell>
+          <cell r="X122" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="J123">
+            <v>888</v>
+          </cell>
+          <cell r="R123">
+            <v>3</v>
+          </cell>
+          <cell r="S123">
+            <v>114</v>
+          </cell>
+          <cell r="T123">
+            <v>5</v>
+          </cell>
+          <cell r="U123">
+            <v>8</v>
+          </cell>
+          <cell r="X123" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="J125">
+            <v>345</v>
+          </cell>
+          <cell r="R125">
+            <v>1</v>
+          </cell>
+          <cell r="S125">
+            <v>111</v>
+          </cell>
+          <cell r="T125">
+            <v>4</v>
+          </cell>
+          <cell r="U125">
+            <v>3</v>
+          </cell>
+          <cell r="X125" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="J126">
+            <v>99</v>
+          </cell>
+          <cell r="R126">
+            <v>2</v>
+          </cell>
+          <cell r="S126">
+            <v>113</v>
+          </cell>
+          <cell r="T126">
+            <v>5</v>
+          </cell>
+          <cell r="U126">
+            <v>6</v>
+          </cell>
+          <cell r="X126" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="J127">
+            <v>888</v>
+          </cell>
+          <cell r="R127">
+            <v>3</v>
+          </cell>
+          <cell r="S127">
+            <v>114</v>
+          </cell>
+          <cell r="T127">
+            <v>5</v>
+          </cell>
+          <cell r="U127">
+            <v>8</v>
+          </cell>
+          <cell r="X127" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="J129">
+            <v>345</v>
+          </cell>
+          <cell r="R129">
+            <v>1</v>
+          </cell>
+          <cell r="S129">
+            <v>111</v>
+          </cell>
+          <cell r="T129">
+            <v>4</v>
+          </cell>
+          <cell r="U129">
+            <v>3</v>
+          </cell>
+          <cell r="X129" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="J130">
+            <v>99</v>
+          </cell>
+          <cell r="R130">
+            <v>2</v>
+          </cell>
+          <cell r="S130">
+            <v>113</v>
+          </cell>
+          <cell r="T130">
+            <v>5</v>
+          </cell>
+          <cell r="U130">
+            <v>6</v>
+          </cell>
+          <cell r="X130" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="J131">
+            <v>888</v>
+          </cell>
+          <cell r="R131">
+            <v>3</v>
+          </cell>
+          <cell r="S131">
+            <v>114</v>
+          </cell>
+          <cell r="T131">
+            <v>5</v>
+          </cell>
+          <cell r="U131">
+            <v>8</v>
+          </cell>
+          <cell r="X131" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="J133">
+            <v>345</v>
+          </cell>
+          <cell r="R133">
+            <v>1</v>
+          </cell>
+          <cell r="S133">
+            <v>111</v>
+          </cell>
+          <cell r="T133">
+            <v>4</v>
+          </cell>
+          <cell r="U133">
+            <v>3</v>
+          </cell>
+          <cell r="X133" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="J134">
+            <v>99</v>
+          </cell>
+          <cell r="R134">
+            <v>2</v>
+          </cell>
+          <cell r="S134">
+            <v>113</v>
+          </cell>
+          <cell r="T134">
+            <v>5</v>
+          </cell>
+          <cell r="U134">
+            <v>6</v>
+          </cell>
+          <cell r="X134" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="J135">
+            <v>888</v>
+          </cell>
+          <cell r="R135">
+            <v>3</v>
+          </cell>
+          <cell r="S135">
+            <v>114</v>
+          </cell>
+          <cell r="T135">
+            <v>5</v>
+          </cell>
+          <cell r="U135">
+            <v>8</v>
+          </cell>
+          <cell r="X135" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="J137">
+            <v>345</v>
+          </cell>
+          <cell r="R137">
+            <v>1</v>
+          </cell>
+          <cell r="S137">
+            <v>111</v>
+          </cell>
+          <cell r="T137">
+            <v>4</v>
+          </cell>
+          <cell r="U137">
+            <v>3</v>
+          </cell>
+          <cell r="X137" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="J138">
+            <v>99</v>
+          </cell>
+          <cell r="R138">
+            <v>2</v>
+          </cell>
+          <cell r="S138">
+            <v>113</v>
+          </cell>
+          <cell r="T138">
+            <v>5</v>
+          </cell>
+          <cell r="U138">
+            <v>6</v>
+          </cell>
+          <cell r="X138" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="J139">
+            <v>888</v>
+          </cell>
+          <cell r="R139">
+            <v>3</v>
+          </cell>
+          <cell r="S139">
+            <v>114</v>
+          </cell>
+          <cell r="T139">
+            <v>5</v>
+          </cell>
+          <cell r="U139">
+            <v>8</v>
+          </cell>
+          <cell r="X139" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="J141">
+            <v>345</v>
+          </cell>
+          <cell r="R141">
+            <v>1</v>
+          </cell>
+          <cell r="S141">
+            <v>111</v>
+          </cell>
+          <cell r="T141">
+            <v>4</v>
+          </cell>
+          <cell r="U141">
+            <v>3</v>
+          </cell>
+          <cell r="X141" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="J142">
+            <v>99</v>
+          </cell>
+          <cell r="R142">
+            <v>2</v>
+          </cell>
+          <cell r="S142">
+            <v>113</v>
+          </cell>
+          <cell r="T142">
+            <v>5</v>
+          </cell>
+          <cell r="U142">
+            <v>6</v>
+          </cell>
+          <cell r="X142" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="J143">
+            <v>888</v>
+          </cell>
+          <cell r="R143">
+            <v>3</v>
+          </cell>
+          <cell r="S143">
+            <v>114</v>
+          </cell>
+          <cell r="T143">
+            <v>5</v>
+          </cell>
+          <cell r="U143">
+            <v>8</v>
+          </cell>
+          <cell r="X143" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="J145">
+            <v>345</v>
+          </cell>
+          <cell r="R145">
+            <v>1</v>
+          </cell>
+          <cell r="S145">
+            <v>111</v>
+          </cell>
+          <cell r="T145">
+            <v>4</v>
+          </cell>
+          <cell r="U145">
+            <v>3</v>
+          </cell>
+          <cell r="X145" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="J146">
+            <v>99</v>
+          </cell>
+          <cell r="R146">
+            <v>2</v>
+          </cell>
+          <cell r="S146">
+            <v>113</v>
+          </cell>
+          <cell r="T146">
+            <v>5</v>
+          </cell>
+          <cell r="U146">
+            <v>6</v>
+          </cell>
+          <cell r="X146" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="J147">
+            <v>888</v>
+          </cell>
+          <cell r="R147">
+            <v>3</v>
+          </cell>
+          <cell r="S147">
+            <v>114</v>
+          </cell>
+          <cell r="T147">
+            <v>5</v>
+          </cell>
+          <cell r="U147">
+            <v>8</v>
+          </cell>
+          <cell r="X147" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="J149">
+            <v>345</v>
+          </cell>
+          <cell r="R149">
+            <v>1</v>
+          </cell>
+          <cell r="S149">
+            <v>111</v>
+          </cell>
+          <cell r="U149">
+            <v>3</v>
+          </cell>
+          <cell r="X149" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="J150">
+            <v>99</v>
+          </cell>
+          <cell r="R150">
+            <v>2</v>
+          </cell>
+          <cell r="S150">
+            <v>109</v>
+          </cell>
+          <cell r="T150">
+            <v>5</v>
+          </cell>
+          <cell r="U150">
+            <v>6</v>
+          </cell>
+          <cell r="X150" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="J151">
+            <v>888</v>
+          </cell>
+          <cell r="R151">
+            <v>3</v>
+          </cell>
+          <cell r="S151">
+            <v>110</v>
+          </cell>
+          <cell r="T151">
+            <v>5</v>
+          </cell>
+          <cell r="U151">
+            <v>8</v>
+          </cell>
+          <cell r="X151" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="J153">
+            <v>345</v>
+          </cell>
+          <cell r="R153">
+            <v>1</v>
+          </cell>
+          <cell r="S153">
+            <v>111</v>
+          </cell>
+          <cell r="T153">
+            <v>4</v>
+          </cell>
+          <cell r="U153">
+            <v>3</v>
+          </cell>
+          <cell r="X153" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="J154">
+            <v>99</v>
+          </cell>
+          <cell r="R154">
+            <v>2</v>
+          </cell>
+          <cell r="S154">
+            <v>113</v>
+          </cell>
+          <cell r="T154">
+            <v>5</v>
+          </cell>
+          <cell r="U154">
+            <v>6</v>
+          </cell>
+          <cell r="X154" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="J155">
+            <v>888</v>
+          </cell>
+          <cell r="R155">
+            <v>3</v>
+          </cell>
+          <cell r="S155">
+            <v>114</v>
+          </cell>
+          <cell r="T155">
+            <v>5</v>
+          </cell>
+          <cell r="U155">
+            <v>8</v>
+          </cell>
+          <cell r="X155" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="J157">
+            <v>345</v>
+          </cell>
+          <cell r="R157">
+            <v>1</v>
+          </cell>
+          <cell r="S157">
+            <v>111</v>
+          </cell>
+          <cell r="T157">
+            <v>4</v>
+          </cell>
+          <cell r="U157">
+            <v>3</v>
+          </cell>
+          <cell r="X157" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="J158">
+            <v>99</v>
+          </cell>
+          <cell r="R158">
+            <v>2</v>
+          </cell>
+          <cell r="S158">
+            <v>113</v>
+          </cell>
+          <cell r="T158">
+            <v>5</v>
+          </cell>
+          <cell r="U158">
+            <v>6</v>
+          </cell>
+          <cell r="X158" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="J159">
+            <v>888</v>
+          </cell>
+          <cell r="R159">
+            <v>3</v>
+          </cell>
+          <cell r="S159">
+            <v>114</v>
+          </cell>
+          <cell r="T159">
+            <v>5</v>
+          </cell>
+          <cell r="U159">
+            <v>8</v>
+          </cell>
+          <cell r="X159" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="J161">
+            <v>345</v>
+          </cell>
+          <cell r="R161">
+            <v>1</v>
+          </cell>
+          <cell r="S161">
+            <v>111</v>
+          </cell>
+          <cell r="T161">
+            <v>4</v>
+          </cell>
+          <cell r="U161">
+            <v>3</v>
+          </cell>
+          <cell r="X161" t="str">
+            <v>ДП-л-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="J162">
+            <v>99</v>
+          </cell>
+          <cell r="R162">
+            <v>2</v>
+          </cell>
+          <cell r="S162">
+            <v>113</v>
+          </cell>
+          <cell r="T162">
+            <v>5</v>
+          </cell>
+          <cell r="U162">
+            <v>6</v>
+          </cell>
+          <cell r="X162" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="J163">
+            <v>888</v>
+          </cell>
+          <cell r="R163">
+            <v>3</v>
+          </cell>
+          <cell r="S163">
+            <v>114</v>
+          </cell>
+          <cell r="T163">
+            <v>5</v>
+          </cell>
+          <cell r="U163">
+            <v>8</v>
+          </cell>
+          <cell r="X163" t="str">
+            <v>ДП-з-Євро5 В0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +3557,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C607BB3-6530-3E4A-AD6C-9EE22B2DF16B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677F7585-4572-E841-ADEA-BDD9AB3BE745}">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A1:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="8.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="14.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A4" s="4" t="str">
+        <f>" за період з " &amp;TEXT( VALUE([1]SourceSheet!C3), "dd.mm.YYYY") &amp; " по " &amp; TEXT( VALUE([1]SourceSheet!D3), "dd.mm.YYYY")  &amp;" року"</f>
+        <v xml:space="preserve"> за період з 21.03.2023 по 23.04.2023 року</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.5" customHeight="1">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="51.75" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>[1]SourceSheet!B3</f>
+        <v>БМТЗ РМЗ</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f>"перебувало на початок звітнього періоду(" &amp; TEXT( VALUE([1]SourceSheet!C3), "dd.mm.YY") &amp; ")"</f>
+        <v>перебувало на початок звітнього періоду(21.03.23)</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16" t="str">
+        <f>"наявність станом на (" &amp; TEXT( VALUE([1]SourceSheet!D3), "dd.mm.YY")  &amp; ")"</f>
+        <v>наявність станом на (23.04.23)</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="91.5" customHeight="1" thickBot="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="22">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22">
+        <v>6</v>
+      </c>
+      <c r="F12" s="22">
+        <v>7</v>
+      </c>
+      <c r="G12" s="22">
+        <v>9</v>
+      </c>
+      <c r="H12" s="22">
+        <v>11</v>
+      </c>
+      <c r="I12" s="22">
+        <v>12</v>
+      </c>
+      <c r="J12" s="22">
+        <v>13</v>
+      </c>
+      <c r="K12" s="22">
+        <v>14</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21" t="str" cm="1">
+        <f t="array" ref="B13:B15">_xlfn.LET(
+    _xlpm.data,_xlfn.VSTACK([1]SourceSheet!X5:X163, [1]SourceSheet!Y5:Y163),
+    _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.data,_xlpm.data&lt;&gt;""))
+)</f>
+        <v>ДП-л-Євро5 В0</v>
+      </c>
+      <c r="C13" s="21" t="str">
+        <f t="shared" ref="C13:C22" si="0">IF(ISBLANK(B13), "", "л/кг")</f>
+        <v>л/кг</v>
+      </c>
+      <c r="D13" s="21" t="str" cm="1">
+        <f t="array" ref="D13">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B13),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B13), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v>40/34</v>
+      </c>
+      <c r="E13" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B13,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B13), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>0/0</v>
+      </c>
+      <c r="F13" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B13,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B13), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>0/0</v>
+      </c>
+      <c r="G13" s="21" t="str">
+        <f t="shared" ref="G13:G22" si="1">_xlfn.LET(
+    _xlpm.ltrsOwn, IF(OR(LEN(E13)=0,ISBLANK(E13)),
+        0, _xlfn.TEXTBEFORE(E13, "/")),
+    _xlpm.kgsOwn, IF(OR(LEN(E13)=0,ISBLANK(E13)),
+        0, _xlfn.TEXTAFTER(E13, "/")),
+    _xlpm.ltrsOther, IF(OR(LEN(F13)=0,ISBLANK(F13)),
+        0, _xlfn.TEXTBEFORE(F13, "/")),
+    _xlpm.kgsOther, IF(OR(LEN(F13)=0,ISBLANK(F13)),
+        0, _xlfn.TEXTAFTER(F13, "/")),
+    IF(ISBLANK($B13), "", _xlpm.ltrsOwn+_xlpm.ltrsOther &amp; "/" &amp; _xlpm.kgsOwn+_xlpm.kgsOther)
+)</f>
+        <v>0/0</v>
+      </c>
+      <c r="H13" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B13,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B13), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>120/101</v>
+      </c>
+      <c r="I13" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B13), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v>22/18</v>
+      </c>
+      <c r="J13" s="21" t="str">
+        <f>_xlfn.LET(
+    _xlpm.ltrsOwn, IF(OR(LEN(H13)=0,ISBLANK(H13)),
+        0, _xlfn.TEXTBEFORE(H13, "/")),
+    _xlpm.kgsOwn, IF(OR(LEN(H13)=0,ISBLANK(H13)),
+        0, _xlfn.TEXTAFTER(H13, "/")),
+    _xlpm.ltrsOther, IF(OR(LEN(I13)=0,ISBLANK(I13)),
+        0, _xlfn.TEXTBEFORE(I13, "/")),
+    _xlpm.kgsOther, IF(OR(LEN(I13)=0,ISBLANK(I13)),
+        0, _xlfn.TEXTAFTER(I13, "/")),
+    IF(ISBLANK($B13), "", _xlpm.ltrsOther+_xlpm.ltrsOwn &amp; "/" &amp; _xlpm.kgsOwn+_xlpm.kgsOther)
+)</f>
+        <v>142/119</v>
+      </c>
+      <c r="K13" s="21" t="str">
+        <f>_xlfn.LET(
+    _xlpm.ltrsBefore, IF(OR(LEN(D13)=0,ISBLANK(D13)),
+        0, _xlfn.TEXTBEFORE(D13, "/")),
+    _xlpm.kgsBefore, IF(OR(LEN(D13)=0,ISBLANK(D13)),
+        0, _xlfn.TEXTAFTER(D13, "/")),
+    _xlpm.ltrsIncome, IF(OR(LEN(G13)=0,ISBLANK(G13)),
+        0, _xlfn.TEXTBEFORE(G13, "/")),
+    _xlpm.kgsIncome, IF(OR(LEN(G13)=0,ISBLANK(G13)),
+        0, _xlfn.TEXTAFTER(G13, "/")),
+     _xlpm.ltrsOutcome, IF(OR(LEN(J13)=0,ISBLANK(J13)),
+        0, _xlfn.TEXTBEFORE(J13, "/")),
+    _xlpm.kgsOutcome, IF(OR(LEN(J13)=0,ISBLANK(J13)),
+        0, _xlfn.TEXTAFTER(J13, "/")),
+    IF(ISBLANK($B13), "", (_xlpm.ltrsBefore+_xlpm.ltrsIncome- _xlpm.ltrsOutcome) &amp; "/" &amp; (_xlpm.kgsBefore + _xlpm.kgsIncome - _xlpm.kgsOutcome ))
+)</f>
+        <v>-102/-85</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="str">
+        <v>ДП-з-Євро5 В0</v>
+      </c>
+      <c r="C14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>л/кг</v>
+      </c>
+      <c r="D14" s="21" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B14),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B14), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v>0/0</v>
+      </c>
+      <c r="E14" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B14,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B14), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>0/0</v>
+      </c>
+      <c r="F14" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B14,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B14), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>0/0</v>
+      </c>
+      <c r="G14" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0/0</v>
+      </c>
+      <c r="H14" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B14,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B14), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>560/476</v>
+      </c>
+      <c r="I14" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B14), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v>23/20</v>
+      </c>
+      <c r="J14" s="21" t="str">
+        <f t="shared" ref="J14:J22" si="2">_xlfn.LET(
+    _xlpm.ltrsOwn, IF(OR(LEN(H14)=0,ISBLANK(H14)),
+        0, _xlfn.TEXTBEFORE(H14, "/")),
+    _xlpm.kgsOwn, IF(OR(LEN(H14)=0,ISBLANK(H14)),
+        0, _xlfn.TEXTAFTER(H14, "/")),
+    _xlpm.ltrsOther, IF(OR(LEN(I14)=0,ISBLANK(I14)),
+        0, _xlfn.TEXTBEFORE(I14, "/")),
+    _xlpm.kgsOther, IF(OR(LEN(I14)=0,ISBLANK(I14)),
+        0, _xlfn.TEXTAFTER(I14, "/")),
+    IF(ISBLANK($B14), "", _xlpm.ltrsOther+_xlpm.ltrsOwn &amp; "/" &amp; _xlpm.kgsOwn+_xlpm.kgsOther)
+)</f>
+        <v>583/496</v>
+      </c>
+      <c r="K14" s="21" t="str">
+        <f t="shared" ref="K14:K22" si="3">_xlfn.LET(
+    _xlpm.ltrsBefore, IF(OR(LEN(D14)=0,ISBLANK(D14)),
+        0, _xlfn.TEXTBEFORE(D14, "/")),
+    _xlpm.kgsBefore, IF(OR(LEN(D14)=0,ISBLANK(D14)),
+        0, _xlfn.TEXTAFTER(D14, "/")),
+    _xlpm.ltrsIncome, IF(OR(LEN(G14)=0,ISBLANK(G14)),
+        0, _xlfn.TEXTBEFORE(G14, "/")),
+    _xlpm.kgsIncome, IF(OR(LEN(G14)=0,ISBLANK(G14)),
+        0, _xlfn.TEXTAFTER(G14, "/")),
+     _xlpm.ltrsOutcome, IF(OR(LEN(J14)=0,ISBLANK(J14)),
+        0, _xlfn.TEXTBEFORE(J14, "/")),
+    _xlpm.kgsOutcome, IF(OR(LEN(J14)=0,ISBLANK(J14)),
+        0, _xlfn.TEXTAFTER(J14, "/")),
+    IF(ISBLANK($B14), "", (_xlpm.ltrsBefore+_xlpm.ltrsIncome- _xlpm.ltrsOutcome) &amp; "/" &amp; (_xlpm.kgsBefore + _xlpm.kgsIncome - _xlpm.kgsOutcome ))
+)</f>
+        <v>-583/-496</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A15" s="21">
+        <v>3</v>
+      </c>
+      <c r="B15" s="21" t="str">
+        <v>А-80</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>л/кг</v>
+      </c>
+      <c r="D15" s="21" t="str" cm="1">
+        <f t="array" ref="D15">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B15),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B15), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v>0/0</v>
+      </c>
+      <c r="E15" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B15,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B15), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>113/85</v>
+      </c>
+      <c r="F15" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B15,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B15), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>5/4</v>
+      </c>
+      <c r="G15" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>118/89</v>
+      </c>
+      <c r="H15" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B15,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B15), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v>0/0</v>
+      </c>
+      <c r="I15" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B15), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v>26/20</v>
+      </c>
+      <c r="J15" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>26/20</v>
+      </c>
+      <c r="K15" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>92/69</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A16" s="21">
+        <v>4</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" s="21" t="str" cm="1">
+        <f t="array" ref="D16">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B16),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B16), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E16" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B16,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B16), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F16" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B16,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B16), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B16,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B16), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I16" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B16), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K16" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A17" s="21">
+        <v>5</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" s="21" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B17),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B17), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B17,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B17), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F17" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B17,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B17), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B17,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B17), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I17" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B17), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A18" s="21">
+        <v>6</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D18" s="21" t="str" cm="1">
+        <f t="array" ref="D18">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B18),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B18), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B18,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B18), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F18" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B18,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B18), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B18,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B18), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I18" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B18), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K18" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="21">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D19" s="21" t="str" cm="1">
+        <f t="array" ref="D19">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B19),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B19), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E19" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B19,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B19), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F19" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B19,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B19), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B19,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B19), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I19" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B19), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K19" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A20" s="21">
+        <v>8</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D20" s="21" t="str" cm="1">
+        <f t="array" ref="D20">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B20),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B20), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E20" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B20,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B20), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F20" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B20,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B20), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G20" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B20,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B20), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I20" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B20), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J20" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A21" s="21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D21" s="21" t="str" cm="1">
+        <f t="array" ref="D21">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B21),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B21), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E21" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B21,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B21), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F21" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B21,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B21), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G21" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B21,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B21), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I21" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B21), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A22" s="21">
+        <v>10</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="21" t="str" cm="1">
+        <f t="array" ref="D22">_xlfn.LET(_xlpm.ltrs,
+    SUMPRODUCT(
+        --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B22),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+        IF(ISBLANK(B22), "",
+            _xlpm.ltrs &amp; "/" &amp; ROUND( _xlpm.kgs, 0)
+        )
+    )</f>
+        <v/>
+      </c>
+      <c r="E22" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B22,[1]SourceSheet!$S$5:$S$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B22), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="F22" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$Y$5:$Y$163,B22,[1]SourceSheet!$T$5:$T$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B22), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="G22" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="21" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs,
+    SUMIF([1]SourceSheet!$X$5:$X$163,B22,[1]SourceSheet!$U$5:$U$163),
+    _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
+    IF(ISBLANK(B22), "",
+        _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="I22" s="24" t="str">
+        <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B22), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
+        <v/>
+      </c>
+      <c r="J22" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="A23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A24" s="26" t="str">
+        <f t="array" ref="A24">_xlfn.TEXTJOIN(", ", TRUE(), _xlfn._xlws.FILTER([1]SourceSheet!$J$5:$J$163,MOD(_xlfn.SEQUENCE(ROWS([1]SourceSheet!$J$5:$J$163)),4)&lt;&gt;0, FALSE()))</f>
+        <v>345, 99, 888, 345, 99, 888, 347, 119, 888, 345, 99, 888, 345, 99, 8, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 88, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1">
+      <c r="A25" s="26" t="e" cm="1">
+        <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(_xlpm.cnt, COUNT(_xlfn._xlws.FILTER([1]SourceSheet!$J$5:$J$163,MOD(_xlfn.SEQUENCE(ROWS([1]SourceSheet!$J$5:$J$163)),4)&lt;&gt;0,FALSE())), "(" &amp; NumberText(_xlpm.cnt) &amp; ") " &amp; _xlpm.cnt &amp; " штук.")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1">
+      <c r="A26" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:15" ht="18" customHeight="1">
+      <c r="A28" s="27" t="str">
+        <f>"Командир " &amp; [1]SourceSheet!B3</f>
+        <v>Командир БМТЗ РМЗ</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="E28" s="28" t="str">
+        <f>[1]SourceSheet!F3&amp; "_________________"&amp;[1]SourceSheet!G3</f>
+        <v>к-н_________________К. Ісмаїлов</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="12" customHeight="1">
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:15" ht="12" customHeight="1"/>
+    <row r="31" spans="1:15" ht="12" customHeight="1"/>
+    <row r="32" spans="1:15" ht="12" customHeight="1"/>
+    <row r="33" spans="1:5" ht="12" customHeight="1"/>
+    <row r="34" spans="1:5" ht="12" customHeight="1"/>
+    <row r="35" spans="1:5" ht="12" customHeight="1">
+      <c r="A35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" ht="12" customHeight="1"/>
+    <row r="37" spans="1:5" ht="12" customHeight="1"/>
+    <row r="38" spans="1:5" ht="12" customHeight="1"/>
+    <row r="39" spans="1:5" ht="12" customHeight="1"/>
+    <row r="40" spans="1:5" ht="12" customHeight="1"/>
+    <row r="41" spans="1:5" ht="12" customHeight="1"/>
+    <row r="42" spans="1:5" ht="12" customHeight="1"/>
+    <row r="43" spans="1:5" ht="12" customHeight="1"/>
+    <row r="44" spans="1:5" ht="12" customHeight="1">
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" ht="12" customHeight="1"/>
+    <row r="46" spans="1:5" ht="12" customHeight="1"/>
+    <row r="47" spans="1:5" ht="12" customHeight="1"/>
+    <row r="48" spans="1:5" ht="12" customHeight="1"/>
+    <row r="49" ht="12" customHeight="1"/>
+    <row r="50" ht="12" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1"/>
+    <row r="52" ht="12" customHeight="1"/>
+    <row r="53" ht="12" customHeight="1"/>
+    <row r="54" ht="12" customHeight="1"/>
+    <row r="55" ht="12" customHeight="1"/>
+    <row r="56" ht="12" customHeight="1"/>
+    <row r="57" ht="12" customHeight="1"/>
+    <row r="58" ht="12" customHeight="1"/>
+    <row r="59" ht="12" customHeight="1"/>
+    <row r="60" ht="12" customHeight="1"/>
+    <row r="61" ht="12" customHeight="1"/>
+    <row r="62" ht="12" customHeight="1"/>
+    <row r="63" ht="12" customHeight="1"/>
+    <row r="64" ht="12" customHeight="1"/>
+    <row r="65" ht="12" customHeight="1"/>
+    <row r="66" ht="12" customHeight="1"/>
+    <row r="67" ht="12" customHeight="1"/>
+    <row r="68" ht="12" customHeight="1"/>
+    <row r="69" ht="12" customHeight="1"/>
+    <row r="70" ht="12" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
+    <row r="72" ht="12" customHeight="1"/>
+    <row r="73" ht="12" customHeight="1"/>
+    <row r="74" ht="12" customHeight="1"/>
+    <row r="75" ht="12" customHeight="1"/>
+    <row r="76" ht="12" customHeight="1"/>
+    <row r="77" ht="12" customHeight="1"/>
+    <row r="78" ht="12" customHeight="1"/>
+    <row r="79" ht="12" customHeight="1"/>
+    <row r="80" ht="12" customHeight="1"/>
+    <row r="81" ht="12" customHeight="1"/>
+    <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
+    <row r="84" ht="12" customHeight="1"/>
+    <row r="85" ht="12" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
+    <row r="88" ht="12" customHeight="1"/>
+    <row r="89" ht="12" customHeight="1"/>
+    <row r="90" ht="12" customHeight="1"/>
+    <row r="91" ht="12" customHeight="1"/>
+    <row r="92" ht="12" customHeight="1"/>
+    <row r="93" ht="12" customHeight="1"/>
+    <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
+    <row r="102" ht="12" customHeight="1"/>
+    <row r="103" ht="12" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.45972222222222198" right="0.34027777777777801" top="0.359722222222222" bottom="0.35" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A1960-4674-2642-A8F4-22FF6C13335B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>

--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crchemist/development/donpmm/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEE6BCF-6730-3547-8F59-1FA0F7A1224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9959CB-651B-A048-B514-48ADC78DE7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{F811705A-BC7D-E149-A537-E4F41477A2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Донесення" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Донесення!$A$13:$K$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Донесення!$A$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,16 +368,7 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -389,30 +379,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,12 +408,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +474,7 @@
       <sheetName val="Реестр шлях.пут."/>
       <sheetName val="Донесення"/>
       <sheetName val="SourceSheet"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -489,6 +489,7 @@
           <cell r="R2" t="str">
             <v>Залишок початок</v>
           </cell>
+          <cell r="X2"/>
         </row>
         <row r="3">
           <cell r="B3" t="str">
@@ -506,11 +507,14 @@
           <cell r="G3" t="str">
             <v>К. Ісмаїлов</v>
           </cell>
+          <cell r="R3"/>
+          <cell r="X3"/>
         </row>
         <row r="4">
           <cell r="R4" t="str">
             <v>6307E6</v>
           </cell>
+          <cell r="X4"/>
         </row>
         <row r="5">
           <cell r="B5" t="str">
@@ -613,6 +617,7 @@
           <cell r="D7">
             <v>3</v>
           </cell>
+          <cell r="E7"/>
           <cell r="F7">
             <v>4</v>
           </cell>
@@ -675,6 +680,10 @@
           <cell r="R8">
             <v>8123</v>
           </cell>
+          <cell r="S8"/>
+          <cell r="T8"/>
+          <cell r="U8"/>
+          <cell r="X8"/>
         </row>
         <row r="9">
           <cell r="J9">
@@ -743,6 +752,10 @@
           <cell r="R12">
             <v>3232</v>
           </cell>
+          <cell r="S12"/>
+          <cell r="T12"/>
+          <cell r="U12"/>
+          <cell r="X12"/>
         </row>
         <row r="13">
           <cell r="B13" t="str">
@@ -836,9 +849,11 @@
           <cell r="B15">
             <v>5</v>
           </cell>
+          <cell r="C15"/>
           <cell r="D15">
             <v>6</v>
           </cell>
+          <cell r="E15"/>
           <cell r="F15">
             <v>7</v>
           </cell>
@@ -901,6 +916,10 @@
           <cell r="R16">
             <v>88888</v>
           </cell>
+          <cell r="S16"/>
+          <cell r="T16"/>
+          <cell r="U16"/>
+          <cell r="X16"/>
         </row>
         <row r="17">
           <cell r="J17">
@@ -969,6 +988,10 @@
           <cell r="R20">
             <v>6666</v>
           </cell>
+          <cell r="S20"/>
+          <cell r="T20"/>
+          <cell r="U20"/>
+          <cell r="X20"/>
         </row>
         <row r="21">
           <cell r="J21">
@@ -1037,6 +1060,10 @@
           <cell r="R24" t="str">
             <v>fj99</v>
           </cell>
+          <cell r="S24"/>
+          <cell r="T24"/>
+          <cell r="U24"/>
+          <cell r="X24"/>
         </row>
         <row r="25">
           <cell r="J25">
@@ -1105,6 +1132,10 @@
           <cell r="R28">
             <v>777</v>
           </cell>
+          <cell r="S28"/>
+          <cell r="T28"/>
+          <cell r="U28"/>
+          <cell r="X28"/>
         </row>
         <row r="29">
           <cell r="J29">
@@ -1173,6 +1204,10 @@
           <cell r="R32" t="str">
             <v>8888A2</v>
           </cell>
+          <cell r="S32"/>
+          <cell r="T32"/>
+          <cell r="U32"/>
+          <cell r="X32"/>
         </row>
         <row r="33">
           <cell r="J33">
@@ -1241,6 +1276,10 @@
           <cell r="R36" t="str">
             <v>999nine</v>
           </cell>
+          <cell r="S36"/>
+          <cell r="T36"/>
+          <cell r="U36"/>
+          <cell r="X36"/>
         </row>
         <row r="37">
           <cell r="J37">
@@ -1309,6 +1348,10 @@
           <cell r="R40">
             <v>1010</v>
           </cell>
+          <cell r="S40"/>
+          <cell r="T40"/>
+          <cell r="U40"/>
+          <cell r="X40"/>
         </row>
         <row r="41">
           <cell r="J41">
@@ -1377,6 +1420,10 @@
           <cell r="R44" t="str">
             <v>111!</v>
           </cell>
+          <cell r="S44"/>
+          <cell r="T44"/>
+          <cell r="U44"/>
+          <cell r="X44"/>
         </row>
         <row r="45">
           <cell r="J45">
@@ -1445,6 +1492,10 @@
           <cell r="R48">
             <v>1212</v>
           </cell>
+          <cell r="S48"/>
+          <cell r="T48"/>
+          <cell r="U48"/>
+          <cell r="X48"/>
         </row>
         <row r="49">
           <cell r="J49">
@@ -1513,6 +1564,10 @@
           <cell r="R52">
             <v>1313</v>
           </cell>
+          <cell r="S52"/>
+          <cell r="T52"/>
+          <cell r="U52"/>
+          <cell r="X52"/>
         </row>
         <row r="53">
           <cell r="J53">
@@ -1581,6 +1636,10 @@
           <cell r="R56">
             <v>1414</v>
           </cell>
+          <cell r="S56"/>
+          <cell r="T56"/>
+          <cell r="U56"/>
+          <cell r="X56"/>
         </row>
         <row r="57">
           <cell r="J57">
@@ -1649,6 +1708,10 @@
           <cell r="R60">
             <v>1515</v>
           </cell>
+          <cell r="S60"/>
+          <cell r="T60"/>
+          <cell r="U60"/>
+          <cell r="X60"/>
         </row>
         <row r="61">
           <cell r="J61">
@@ -1717,6 +1780,10 @@
           <cell r="R64">
             <v>1616</v>
           </cell>
+          <cell r="S64"/>
+          <cell r="T64"/>
+          <cell r="U64"/>
+          <cell r="X64"/>
         </row>
         <row r="65">
           <cell r="J65">
@@ -1785,6 +1852,10 @@
           <cell r="R68">
             <v>1718</v>
           </cell>
+          <cell r="S68"/>
+          <cell r="T68"/>
+          <cell r="U68"/>
+          <cell r="X68"/>
         </row>
         <row r="69">
           <cell r="J69">
@@ -1853,6 +1924,10 @@
           <cell r="R72">
             <v>1818</v>
           </cell>
+          <cell r="S72"/>
+          <cell r="T72"/>
+          <cell r="U72"/>
+          <cell r="X72"/>
         </row>
         <row r="73">
           <cell r="J73">
@@ -1921,6 +1996,10 @@
           <cell r="R76">
             <v>2020</v>
           </cell>
+          <cell r="S76"/>
+          <cell r="T76"/>
+          <cell r="U76"/>
+          <cell r="X76"/>
         </row>
         <row r="77">
           <cell r="J77">
@@ -1989,6 +2068,10 @@
           <cell r="R80">
             <v>2121</v>
           </cell>
+          <cell r="S80"/>
+          <cell r="T80"/>
+          <cell r="U80"/>
+          <cell r="X80"/>
         </row>
         <row r="81">
           <cell r="J81">
@@ -2057,6 +2140,10 @@
           <cell r="R84">
             <v>2222</v>
           </cell>
+          <cell r="S84"/>
+          <cell r="T84"/>
+          <cell r="U84"/>
+          <cell r="X84"/>
         </row>
         <row r="85">
           <cell r="J85">
@@ -2118,6 +2205,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="J88"/>
+          <cell r="R88"/>
+          <cell r="S88"/>
+          <cell r="T88"/>
+          <cell r="U88"/>
+          <cell r="X88"/>
+        </row>
         <row r="89">
           <cell r="J89">
             <v>345</v>
@@ -2178,6 +2273,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="92">
+          <cell r="J92"/>
+          <cell r="R92"/>
+          <cell r="S92"/>
+          <cell r="T92"/>
+          <cell r="U92"/>
+          <cell r="X92"/>
+        </row>
         <row r="93">
           <cell r="J93">
             <v>345</v>
@@ -2238,6 +2341,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="96">
+          <cell r="J96"/>
+          <cell r="R96"/>
+          <cell r="S96"/>
+          <cell r="T96"/>
+          <cell r="U96"/>
+          <cell r="X96"/>
+        </row>
         <row r="97">
           <cell r="J97">
             <v>345</v>
@@ -2298,6 +2409,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="100">
+          <cell r="J100"/>
+          <cell r="R100"/>
+          <cell r="S100"/>
+          <cell r="T100"/>
+          <cell r="U100"/>
+          <cell r="X100"/>
+        </row>
         <row r="101">
           <cell r="J101">
             <v>345</v>
@@ -2358,6 +2477,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="104">
+          <cell r="J104"/>
+          <cell r="R104"/>
+          <cell r="S104"/>
+          <cell r="T104"/>
+          <cell r="U104"/>
+          <cell r="X104"/>
+        </row>
         <row r="105">
           <cell r="J105">
             <v>345</v>
@@ -2418,6 +2545,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="108">
+          <cell r="J108"/>
+          <cell r="R108"/>
+          <cell r="S108"/>
+          <cell r="T108"/>
+          <cell r="U108"/>
+          <cell r="X108"/>
+        </row>
         <row r="109">
           <cell r="J109">
             <v>345</v>
@@ -2478,6 +2613,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="112">
+          <cell r="J112"/>
+          <cell r="R112"/>
+          <cell r="S112"/>
+          <cell r="T112"/>
+          <cell r="U112"/>
+          <cell r="X112"/>
+        </row>
         <row r="113">
           <cell r="J113">
             <v>345</v>
@@ -2538,6 +2681,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="J116"/>
+          <cell r="R116"/>
+          <cell r="S116"/>
+          <cell r="T116"/>
+          <cell r="U116"/>
+          <cell r="X116"/>
+        </row>
         <row r="117">
           <cell r="J117">
             <v>345</v>
@@ -2598,6 +2749,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="120">
+          <cell r="J120"/>
+          <cell r="R120"/>
+          <cell r="S120"/>
+          <cell r="T120"/>
+          <cell r="U120"/>
+          <cell r="X120"/>
+        </row>
         <row r="121">
           <cell r="J121">
             <v>345</v>
@@ -2658,6 +2817,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="124">
+          <cell r="J124"/>
+          <cell r="R124"/>
+          <cell r="S124"/>
+          <cell r="T124"/>
+          <cell r="U124"/>
+          <cell r="X124"/>
+        </row>
         <row r="125">
           <cell r="J125">
             <v>345</v>
@@ -2718,6 +2885,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="128">
+          <cell r="J128"/>
+          <cell r="R128"/>
+          <cell r="S128"/>
+          <cell r="T128"/>
+          <cell r="U128"/>
+          <cell r="X128"/>
+        </row>
         <row r="129">
           <cell r="J129">
             <v>345</v>
@@ -2778,6 +2953,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="132">
+          <cell r="J132"/>
+          <cell r="R132"/>
+          <cell r="S132"/>
+          <cell r="T132"/>
+          <cell r="U132"/>
+          <cell r="X132"/>
+        </row>
         <row r="133">
           <cell r="J133">
             <v>345</v>
@@ -2838,6 +3021,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="J136"/>
+          <cell r="R136"/>
+          <cell r="S136"/>
+          <cell r="T136"/>
+          <cell r="U136"/>
+          <cell r="X136"/>
+        </row>
         <row r="137">
           <cell r="J137">
             <v>345</v>
@@ -2898,6 +3089,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="140">
+          <cell r="J140"/>
+          <cell r="R140"/>
+          <cell r="S140"/>
+          <cell r="T140"/>
+          <cell r="U140"/>
+          <cell r="X140"/>
+        </row>
         <row r="141">
           <cell r="J141">
             <v>345</v>
@@ -2958,6 +3157,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="144">
+          <cell r="J144"/>
+          <cell r="R144"/>
+          <cell r="S144"/>
+          <cell r="T144"/>
+          <cell r="U144"/>
+          <cell r="X144"/>
+        </row>
         <row r="145">
           <cell r="J145">
             <v>345</v>
@@ -3018,6 +3225,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="148">
+          <cell r="J148"/>
+          <cell r="R148"/>
+          <cell r="S148"/>
+          <cell r="T148"/>
+          <cell r="U148"/>
+          <cell r="X148"/>
+        </row>
         <row r="149">
           <cell r="J149">
             <v>345</v>
@@ -3028,6 +3243,7 @@
           <cell r="S149">
             <v>111</v>
           </cell>
+          <cell r="T149"/>
           <cell r="U149">
             <v>3</v>
           </cell>
@@ -3075,6 +3291,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="152">
+          <cell r="J152"/>
+          <cell r="R152"/>
+          <cell r="S152"/>
+          <cell r="T152"/>
+          <cell r="U152"/>
+          <cell r="X152"/>
+        </row>
         <row r="153">
           <cell r="J153">
             <v>345</v>
@@ -3135,6 +3359,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="156">
+          <cell r="J156"/>
+          <cell r="R156"/>
+          <cell r="S156"/>
+          <cell r="T156"/>
+          <cell r="U156"/>
+          <cell r="X156"/>
+        </row>
         <row r="157">
           <cell r="J157">
             <v>345</v>
@@ -3195,6 +3427,14 @@
             <v>ДП-з-Євро5 В0</v>
           </cell>
         </row>
+        <row r="160">
+          <cell r="J160"/>
+          <cell r="R160"/>
+          <cell r="S160"/>
+          <cell r="T160"/>
+          <cell r="U160"/>
+          <cell r="X160"/>
+        </row>
         <row r="161">
           <cell r="J161">
             <v>345</v>
@@ -3256,6 +3496,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3562,279 +3803,276 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="8.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="14.5" style="2"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="21" t="str">
         <f>" за період з " &amp;TEXT( VALUE([1]SourceSheet!C3), "dd.mm.YYYY") &amp; " по " &amp; TEXT( VALUE([1]SourceSheet!D3), "dd.mm.YYYY")  &amp;" року"</f>
         <v xml:space="preserve"> за період з 21.03.2023 по 23.04.2023 року</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="4.5" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="5"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f>[1]SourceSheet!B3</f>
-        <v>БМТЗ РМЗ</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="L8" s="10"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="26" t="str">
         <f>"перебувало на початок звітнього періоду(" &amp; TEXT( VALUE([1]SourceSheet!C3), "dd.mm.YY") &amp; ")"</f>
         <v>перебувало на початок звітнього періоду(21.03.23)</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16" t="str">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26" t="str">
         <f>"наявність станом на (" &amp; TEXT( VALUE([1]SourceSheet!D3), "dd.mm.YY")  &amp; ")"</f>
         <v>наявність станом на (23.04.23)</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="21">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="13">
         <v>3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="13">
         <v>6</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="13">
         <v>7</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="13">
         <v>9</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="13">
         <v>11</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="13">
         <v>12</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="13">
         <v>13</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="13">
         <v>14</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="21">
+      <c r="A13" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="str" cm="1">
+      <c r="B13" s="12" t="str" cm="1">
         <f t="array" ref="B13:B15">_xlfn.LET(
     _xlpm.data,_xlfn.VSTACK([1]SourceSheet!X5:X163, [1]SourceSheet!Y5:Y163),
     _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.data,_xlpm.data&lt;&gt;""))
 )</f>
         <v>ДП-л-Євро5 В0</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" ref="C13:C22" si="0">IF(ISBLANK(B13), "", "л/кг")</f>
         <v>л/кг</v>
       </c>
-      <c r="D13" s="21" t="str" cm="1">
+      <c r="D13" s="12" t="str" cm="1">
         <f t="array" ref="D13">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B13),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -3845,7 +4083,7 @@
     )</f>
         <v>40/34</v>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B13,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -3853,9 +4091,9 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>0/0</v>
-      </c>
-      <c r="F13" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B13,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -3863,9 +4101,9 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>0/0</v>
-      </c>
-      <c r="G13" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="12" t="e">
         <f t="shared" ref="G13:G22" si="1">_xlfn.LET(
     _xlpm.ltrsOwn, IF(OR(LEN(E13)=0,ISBLANK(E13)),
         0, _xlfn.TEXTBEFORE(E13, "/")),
@@ -3877,9 +4115,9 @@
         0, _xlfn.TEXTAFTER(F13, "/")),
     IF(ISBLANK($B13), "", _xlpm.ltrsOwn+_xlpm.ltrsOther &amp; "/" &amp; _xlpm.kgsOwn+_xlpm.kgsOther)
 )</f>
-        <v>0/0</v>
-      </c>
-      <c r="H13" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B13,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -3887,13 +4125,13 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>120/101</v>
-      </c>
-      <c r="I13" s="24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B13), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B13, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B13, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v>22/18</v>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="12" t="e">
         <f>_xlfn.LET(
     _xlpm.ltrsOwn, IF(OR(LEN(H13)=0,ISBLANK(H13)),
         0, _xlfn.TEXTBEFORE(H13, "/")),
@@ -3905,9 +4143,9 @@
         0, _xlfn.TEXTAFTER(I13, "/")),
     IF(ISBLANK($B13), "", _xlpm.ltrsOther+_xlpm.ltrsOwn &amp; "/" &amp; _xlpm.kgsOwn+_xlpm.kgsOther)
 )</f>
-        <v>142/119</v>
-      </c>
-      <c r="K13" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="12" t="e">
         <f>_xlfn.LET(
     _xlpm.ltrsBefore, IF(OR(LEN(D13)=0,ISBLANK(D13)),
         0, _xlfn.TEXTBEFORE(D13, "/")),
@@ -3923,25 +4161,25 @@
         0, _xlfn.TEXTAFTER(J13, "/")),
     IF(ISBLANK($B13), "", (_xlpm.ltrsBefore+_xlpm.ltrsIncome- _xlpm.ltrsOutcome) &amp; "/" &amp; (_xlpm.kgsBefore + _xlpm.kgsIncome - _xlpm.kgsOutcome ))
 )</f>
-        <v>-102/-85</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="21">
+      <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="12" t="str">
         <v>ДП-з-Євро5 В0</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>л/кг</v>
       </c>
-      <c r="D14" s="21" t="str" cm="1">
+      <c r="D14" s="12" t="str" cm="1">
         <f t="array" ref="D14">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B14),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -3952,7 +4190,7 @@
     )</f>
         <v>0/0</v>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B14,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -3960,9 +4198,9 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>0/0</v>
-      </c>
-      <c r="F14" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B14,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -3970,13 +4208,13 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>0/0</v>
-      </c>
-      <c r="G14" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>0/0</v>
-      </c>
-      <c r="H14" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B14,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -3984,13 +4222,13 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>560/476</v>
-      </c>
-      <c r="I14" s="24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B14), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B14, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B14, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v>23/20</v>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="12" t="e">
         <f t="shared" ref="J14:J22" si="2">_xlfn.LET(
     _xlpm.ltrsOwn, IF(OR(LEN(H14)=0,ISBLANK(H14)),
         0, _xlfn.TEXTBEFORE(H14, "/")),
@@ -4002,9 +4240,9 @@
         0, _xlfn.TEXTAFTER(I14, "/")),
     IF(ISBLANK($B14), "", _xlpm.ltrsOther+_xlpm.ltrsOwn &amp; "/" &amp; _xlpm.kgsOwn+_xlpm.kgsOther)
 )</f>
-        <v>583/496</v>
-      </c>
-      <c r="K14" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="12" t="e">
         <f t="shared" ref="K14:K22" si="3">_xlfn.LET(
     _xlpm.ltrsBefore, IF(OR(LEN(D14)=0,ISBLANK(D14)),
         0, _xlfn.TEXTBEFORE(D14, "/")),
@@ -4020,25 +4258,25 @@
         0, _xlfn.TEXTAFTER(J14, "/")),
     IF(ISBLANK($B14), "", (_xlpm.ltrsBefore+_xlpm.ltrsIncome- _xlpm.ltrsOutcome) &amp; "/" &amp; (_xlpm.kgsBefore + _xlpm.kgsIncome - _xlpm.kgsOutcome ))
 )</f>
-        <v>-583/-496</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="21">
+      <c r="A15" s="12">
         <v>3</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="12" t="str">
         <v>А-80</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>л/кг</v>
       </c>
-      <c r="D15" s="21" t="str" cm="1">
+      <c r="D15" s="12" t="str" cm="1">
         <f t="array" ref="D15">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B15),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4049,7 +4287,7 @@
     )</f>
         <v>0/0</v>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B15,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4057,9 +4295,9 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>113/85</v>
-      </c>
-      <c r="F15" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B15,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4067,13 +4305,13 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>5/4</v>
-      </c>
-      <c r="G15" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>118/89</v>
-      </c>
-      <c r="H15" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="12" t="e">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B15,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4081,35 +4319,35 @@
         _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.kgs,0)
     )
 )</f>
-        <v>0/0</v>
-      </c>
-      <c r="I15" s="24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B15), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B15, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B15, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v>26/20</v>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>26/20</v>
-      </c>
-      <c r="K15" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>92/69</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="21">
+      <c r="A16" s="12">
         <v>4</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="str">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="21" t="str" cm="1">
+      <c r="D16" s="12" t="str" cm="1">
         <f t="array" ref="D16">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B16),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4120,7 +4358,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B16,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4130,7 +4368,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B16,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4140,11 +4378,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B16,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4154,33 +4392,33 @@
 )</f>
         <v/>
       </c>
-      <c r="I16" s="24" t="str">
+      <c r="I16" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B16), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B16, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B16, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K16" s="21" t="str">
+      <c r="K16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="21">
+      <c r="A17" s="12">
         <v>5</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="str">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="21" t="str" cm="1">
+      <c r="D17" s="12" t="str" cm="1">
         <f t="array" ref="D17">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B17),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4191,7 +4429,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B17,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4201,7 +4439,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B17,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4211,11 +4449,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B17,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4225,33 +4463,33 @@
 )</f>
         <v/>
       </c>
-      <c r="I17" s="24" t="str">
+      <c r="I17" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B17), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B17, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B17, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K17" s="21" t="str">
+      <c r="K17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="21">
+      <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="str">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="21" t="str" cm="1">
+      <c r="D18" s="12" t="str" cm="1">
         <f t="array" ref="D18">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B18),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4262,7 +4500,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B18,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4272,7 +4510,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="F18" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B18,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4282,11 +4520,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B18,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4296,33 +4534,33 @@
 )</f>
         <v/>
       </c>
-      <c r="I18" s="24" t="str">
+      <c r="I18" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B18), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B18, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B18, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K18" s="21" t="str">
+      <c r="K18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="21">
+      <c r="A19" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="str">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="21" t="str" cm="1">
+      <c r="D19" s="12" t="str" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B19),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4333,7 +4571,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B19,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4343,7 +4581,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B19,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4353,11 +4591,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B19,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4367,33 +4605,33 @@
 )</f>
         <v/>
       </c>
-      <c r="I19" s="24" t="str">
+      <c r="I19" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B19), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B19, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B19, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K19" s="21" t="str">
+      <c r="K19" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="21">
+      <c r="A20" s="12">
         <v>8</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="str">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="21" t="str" cm="1">
+      <c r="D20" s="12" t="str" cm="1">
         <f t="array" ref="D20">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B20),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4404,7 +4642,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E20" s="21" t="str">
+      <c r="E20" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B20,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4414,7 +4652,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F20" s="21" t="str">
+      <c r="F20" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B20,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4424,11 +4662,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B20,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4438,33 +4676,33 @@
 )</f>
         <v/>
       </c>
-      <c r="I20" s="24" t="str">
+      <c r="I20" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B20), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B20, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B20, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="21" t="str">
+      <c r="K20" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="21">
+      <c r="A21" s="12">
         <v>9</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="str">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="21" t="str" cm="1">
+      <c r="D21" s="12" t="str" cm="1">
         <f t="array" ref="D21">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B21),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4475,7 +4713,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B21,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4485,7 +4723,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F21" s="21" t="str">
+      <c r="F21" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B21,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4495,11 +4733,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B21,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4509,33 +4747,33 @@
 )</f>
         <v/>
       </c>
-      <c r="I21" s="24" t="str">
+      <c r="I21" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B21), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B21, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B21, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K21" s="21" t="str">
+      <c r="K21" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="1:15" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A22" s="21">
+      <c r="A22" s="12">
         <v>10</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21" t="str">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="21" t="str" cm="1">
+      <c r="D22" s="12" t="str" cm="1">
         <f t="array" ref="D22">_xlfn.LET(_xlpm.ltrs,
     SUMPRODUCT(
         --(MOD(ROW([1]SourceSheet!$R$2:$R$163)-ROW([1]SourceSheet!$R$2)+1,4)=0),--([1]SourceSheet!$X$2:$X$163=B22),--([1]SourceSheet!$X$2:$X$163&lt;&gt;""),[1]SourceSheet!$R$2:$R$163),
@@ -4546,7 +4784,7 @@
     )</f>
         <v/>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B22,[1]SourceSheet!$S$5:$S$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4556,7 +4794,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="F22" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$Y$5:$Y$163,B22,[1]SourceSheet!$T$5:$T$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4566,11 +4804,11 @@
 )</f>
         <v/>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="12" t="str">
         <f>_xlfn.LET(_xlpm.ltrs,
     SUMIF([1]SourceSheet!$X$5:$X$163,B22,[1]SourceSheet!$U$5:$U$163),
     _xlpm.kgs, _xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$6,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$15,2, FALSE())),
@@ -4580,111 +4818,111 @@
 )</f>
         <v/>
       </c>
-      <c r="I22" s="24" t="str">
+      <c r="I22" s="15" t="str">
         <f>_xlfn.LET(_xlpm.ltrs, IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$8,4, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$16,4, FALSE())), IF( ISBLANK(B22), "", _xlpm.ltrs &amp; "/" &amp; ROUND(_xlpm.ltrs * IFERROR(HLOOKUP(B22, [1]SourceSheet!$B$5:$I$8,2, FALSE()), HLOOKUP(B22, [1]SourceSheet!$B$13:$I$16,2, FALSE())),0)))</f>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K22" s="21" t="str">
+      <c r="K22" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A24" s="26" t="str">
+      <c r="A24" s="29" t="str">
         <f t="array" ref="A24">_xlfn.TEXTJOIN(", ", TRUE(), _xlfn._xlws.FILTER([1]SourceSheet!$J$5:$J$163,MOD(_xlfn.SEQUENCE(ROWS([1]SourceSheet!$J$5:$J$163)),4)&lt;&gt;0, FALSE()))</f>
         <v>345, 99, 888, 345, 99, 888, 347, 119, 888, 345, 99, 888, 345, 99, 8, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 88, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888, 345, 99, 888</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
-      <c r="A25" s="26" t="e" cm="1">
+      <c r="A25" s="29" t="e" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(_xlpm.cnt, COUNT(_xlfn._xlws.FILTER([1]SourceSheet!$J$5:$J$163,MOD(_xlfn.SEQUENCE(ROWS([1]SourceSheet!$J$5:$J$163)),4)&lt;&gt;0,FALSE())), "(" &amp; NumberText(_xlpm.cnt) &amp; ") " &amp; _xlpm.cnt &amp; " штук.")</f>
         <v>#NAME?</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="27" t="str">
+      <c r="A28" s="28" t="str">
         <f>"Командир " &amp; [1]SourceSheet!B3</f>
         <v>Командир БМТЗ РМЗ</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="E28" s="28" t="str">
+      <c r="B28" s="28"/>
+      <c r="E28" s="17" t="str">
         <f>[1]SourceSheet!F3&amp; "_________________"&amp;[1]SourceSheet!G3</f>
         <v>к-н_________________К. Ісмаїлов</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="12" customHeight="1">
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:15" ht="12" customHeight="1"/>
     <row r="31" spans="1:15" ht="12" customHeight="1"/>
@@ -4692,7 +4930,7 @@
     <row r="33" spans="1:5" ht="12" customHeight="1"/>
     <row r="34" spans="1:5" ht="12" customHeight="1"/>
     <row r="35" spans="1:5" ht="12" customHeight="1">
-      <c r="A35" s="29"/>
+      <c r="A35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1"/>
     <row r="37" spans="1:5" ht="12" customHeight="1"/>
@@ -4703,7 +4941,7 @@
     <row r="42" spans="1:5" ht="12" customHeight="1"/>
     <row r="43" spans="1:5" ht="12" customHeight="1"/>
     <row r="44" spans="1:5" ht="12" customHeight="1">
-      <c r="E44" s="23"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1"/>
     <row r="46" spans="1:5" ht="12" customHeight="1"/>
@@ -4768,12 +5006,12 @@
     <row r="105" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A26:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A10:A11"/>
@@ -4782,7 +5020,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -4793,20 +5030,9 @@
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.45972222222222198" right="0.34027777777777801" top="0.359722222222222" bottom="0.35" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A1960-4674-2642-A8F4-22FF6C13335B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>